--- a/jim_data.xlsx
+++ b/jim_data.xlsx
@@ -128,9 +128,9 @@
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -445,21 +445,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c s="4" r="A1" t="s">
+      <c s="2" r="A1" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B1" t="s">
+      <c s="2" r="B1" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="C1" t="s">
+      <c s="2" r="C1" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="D1" t="s">
+      <c s="2" r="D1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c s="2" r="A2" t="n">
+      <c s="4" r="A2" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B2" t="n">
@@ -473,7 +473,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c s="2" r="A3" t="n">
+      <c s="4" r="A3" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B3" t="n">
@@ -487,7 +487,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c s="2" r="A4" t="n">
+      <c s="4" r="A4" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B4" t="n">
@@ -501,7 +501,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c s="2" r="A5" t="n">
+      <c s="4" r="A5" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B5" t="n">
@@ -515,7 +515,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c s="2" r="A6" t="n">
+      <c s="4" r="A6" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B6" t="n">
@@ -529,7 +529,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c s="2" r="A7" t="n">
+      <c s="4" r="A7" t="n">
         <v>41447</v>
       </c>
       <c s="1" r="B7" t="n">
@@ -609,16 +609,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c s="4" r="A1" t="s">
+      <c s="2" r="A1" t="s">
         <v>13</v>
       </c>
-      <c s="4" r="B1" t="s">
+      <c s="2" r="B1" t="s">
         <v>12</v>
       </c>
-      <c s="4" r="C1" t="s">
+      <c s="2" r="C1" t="s">
         <v>15</v>
       </c>
-      <c s="4" r="D1" t="s">
+      <c s="2" r="D1" t="s">
         <v>0</v>
       </c>
     </row>
